--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/17_Bingöl_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/17_Bingöl_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0DD4B49-05CC-4261-9D94-C6218682CEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4B3CA7A-7C1E-414C-8BA8-A44A278DAA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="678" xr2:uid="{D3D9530E-75C6-4061-8889-1AA7BDE00F6D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{6DA5BEFA-3AF3-4F0B-9AF5-38DC206663D5}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -974,13 +974,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{1E57830D-0FCB-48C1-8702-6C8C4DA22BEE}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{367BC9D7-E30F-4847-B948-22C1B9469197}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{C89286CF-869C-4E1E-9956-99B79921EDB6}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{0EBA4200-2374-49B6-98B3-EE01E231C90B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{22C21887-854F-4662-8925-D42C1C12F59B}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{62F31ACA-02C4-412F-8C20-7C231A3446A5}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{DC33E06E-6260-417E-891B-19BA7C07A3D2}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{AB8EA6F6-55A0-4E9D-A4A4-6CE1FBC4C39A}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{065DF555-363C-4BA2-9955-BFB8A5A33B9D}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{A77B664D-93AC-41A1-BCE5-0BD9D5157403}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{ACAC2144-8D39-4390-8EE0-4E03D677E432}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{FC5126C0-4A31-4202-8F24-7C25ACC8A685}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{68C6C42E-4AFD-42C1-B16C-AD0C27723D78}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{E03733AE-D51E-4E71-80EA-475A2DD2E0E0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6464CBB-1AFA-4F4F-8A5B-CC5F967E9016}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F29D6E4-6671-4852-90FB-765C9CEBEB6B}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2600,17 +2600,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{38338956-B62C-4518-9632-3CA15ABABA12}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F853F460-B54E-4C52-A36F-FFFA14B5537F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{87F20BA6-B247-413E-B224-A63D732DF85F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{45795040-54C7-449C-A603-F7A5BB4CD535}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C744E645-9B00-4F8F-8E4E-BEBA6BA0DB44}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F23DD376-E77A-4716-8C21-6628C157C14D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A5C29DE5-4CDB-4F06-969D-F94A6808F4C9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{467290E6-1E95-4616-A785-FC9D15A31362}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9739EC15-25AF-44F3-860D-D3C5F78D333D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{97400C9C-B696-46BE-B8CB-6CA96BF4A036}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BF17A64C-66CB-44CF-944B-50E9BF21A2F3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4B12EEEE-BEDD-4413-9AFB-4F1A8186E864}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A6FB7532-B2F8-43F8-A825-159CDE03CD79}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D5D1ADBE-DD75-46BA-9271-2B78BA013E3F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{53B09583-2107-47E0-A5FB-1F586E1194F2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3E7067C8-01D5-4E4E-8476-63F5B77C6763}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FE796370-9089-4924-97EA-F04D9872D98F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AF0F843C-DDB7-42CA-AF7B-CED49254AE41}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{99103003-2E1E-4DFE-83D7-09FCC9D15315}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F7712280-A8D7-4861-A554-5E3F733BE2D5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8A709CC2-FE4F-4AE7-BB68-E7D2902D7113}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{09BF1DA8-F052-4905-B1E7-3204E98FBC89}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2623,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74FDDF4-4D57-4FC0-96A6-E677B881815E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4C11D0-66B5-4DED-AF3B-5CC9855743EB}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3855,17 +3855,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B2BE1729-83D2-4B67-869E-224BAAF1FE34}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A4A3DC06-63C6-4FA4-8C63-31972A7D070A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3FC52576-0240-42FB-A0B0-5BA4A4408838}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F3160F69-95CB-4B04-951E-470ACCCEC95B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{19D0742A-5184-4B15-BD66-03C5A5123026}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{769AB0DA-7691-4268-B240-06354FAEB5DC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1846EAFA-3F6D-4DC4-A6E2-5EDB85F49DCE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A32FDBC2-7BAE-4B53-A125-F22BC20EB4EF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0B69061D-5DA9-4F32-90F3-86EB7A21BE6B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6CADF61F-07B5-4F7F-AEFF-7D9E2E350886}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BE20049B-EFC9-4F3F-832A-32CD1215FC5F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{89B70BEA-60B4-4B1C-B3CF-BCCD49FF4CE2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{215EF153-4BE0-41F0-9BD9-3E376DA2314D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E4E0AC1A-52C0-4953-8C0D-08356ACA501F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CB4920A9-5176-4FD6-9C75-64A6D3DF70DB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{461B1EB3-BD21-4497-8F8C-60853ECA9AC9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6FE7EC70-47B0-4403-A1A9-A3125CFF372A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0FD81782-0647-4411-A206-02FBC556E050}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E634415A-FB96-4833-91F5-324D57706D50}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{90B03689-B33B-4DB4-99EF-793B3CD06E4C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C9D89A6E-B51F-479B-9E4B-D18890AA1A41}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B0F0B115-F5B7-420E-AE27-223E68964698}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3878,7 +3878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D945B84B-A5D2-4568-8DB1-5CF1F84B8528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F67DF69-F535-4381-8ED0-D1B1A01DFFE8}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5080,17 +5080,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{06C6AA6C-D611-405F-8F0F-BE03CBAD25D4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5E1ECE58-A05D-4230-BDAE-F96B33948023}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F0E43E7F-D72C-42DE-A33B-1652D691C4FF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A2E8281A-6384-4D3D-B301-485F255F777B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{222E0835-9E81-4056-BF1B-5F4D42368711}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DEFAE55E-D510-4EFB-8108-541604F80FDA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E6998B5E-67A2-4CB1-8AC9-3D34754CC335}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8193155F-84CB-460B-AEF7-C666371E428A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{428BDBD1-2DBC-41ED-8A1C-926B0C420379}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{12F6F399-2D5C-4BB9-8E7C-45F26676CD45}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E8838E8A-C89D-48C2-866E-884F14234181}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3BCB1140-2526-4B5D-BDD8-F0CFD8026EA6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{28302FFD-8FB7-4CD6-8A34-22E29CB788D3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{906554B0-DC04-45EA-A6CD-DE23CB33B825}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E1C144CA-7BC8-40B6-8866-B5F4F1978557}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8F544D87-C4F6-4442-B4BC-83020F3F1248}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{568F25A0-34DF-4B6A-9C50-0B4AA0A26365}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D4836B4B-8378-452B-B422-97127E619ADA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3CEDC664-4743-4777-8073-726CBD8103A8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{503A3EBA-072B-49B4-BE47-02C604CC2E85}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0D066CA2-828C-42FE-AE48-8840F232492C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F99AA21E-D869-434D-B304-E855126A698B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5103,7 +5103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E735C7B3-D80D-48A2-ABB5-63F146D9E7A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FD1689-A1A1-4536-8120-0A42F12F6500}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6299,17 +6299,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5B7D9700-B4CC-45B5-BD32-C862A8B20A89}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{07908BD4-15F1-416B-8B6B-C43A9A1AE8B6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5E42426A-DFD8-4A48-A234-4179051493BD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7015ECDA-66CA-4166-8823-8B449E0C9993}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A3BA4A6C-DFCF-492F-AEF5-2D1FB017E98E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{37B5B0D9-2F2F-4FA6-8E2F-DAC1DD5B135B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D74CA090-2EAF-41E9-BD6D-669955DFAC76}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8AAFB311-40BB-493A-931B-9F5FCDAEE3AF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{47A57C6C-73C5-4832-96D0-871C8259287F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{11734305-112A-48AE-86FC-6B62F7AC5138}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B6B7D57D-029C-47F2-8061-1E07BF9A4D93}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{898C9F84-F724-4158-B4D3-C426CE9D3944}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CCEDCA7B-EBC2-4909-AD20-ABF67D0C0E67}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EA91DAFF-849E-4540-9C9D-AAA0B33C19AB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{73FFE806-8609-4CFB-825C-6695DDCB7351}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3CB25B75-A697-49B5-94BC-1F1D0BC4EE93}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{60B21483-ED9B-4FB8-BC06-5EB996E37741}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{95D8CD0E-BF72-430E-BE8A-0F53B4400CFC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{31FAF009-C60C-4A10-AC4F-028C773757CD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DF8305D9-8621-4517-B20E-8FAA29306B09}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4999FC7D-2745-4E3F-A63B-0A5922B5E8AC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{428A655B-A7C1-4B89-B324-BD6DB72E7003}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6322,7 +6322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAA9F70-E452-4132-BFED-A95CA2363D98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0FE6AA-1D38-485B-9918-CEC13D5832EA}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7563,17 +7563,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{08BA2C19-7A6D-454B-882E-628A1A8433E0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6775D3CF-0D3D-481D-951E-9744D03ECB23}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{85204446-4F65-49A3-BC91-02B032E76862}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{62C184BF-FE8A-4E31-90EE-1C14ABE27F68}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D9BAE01A-B68C-44C6-9DD7-3904CBF013D3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BB63F090-FCC5-467A-A23C-CD1CA793C730}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{652F5BE5-89A0-42A1-A0C3-43507BC160C1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{025079EC-24E6-4AA6-992D-7B1F35E2593D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FFA87E04-1881-4A44-9E95-856591A7F9D1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0191DDAB-9F39-4B32-8249-3C6058ACEF33}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D0536F78-1ACF-4B84-BD3F-494E6AA52631}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2361990A-5F35-4043-97AC-48040B60DB09}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6BE94F87-969B-4B15-B90B-0C8D84F02A20}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C783D60B-D2D6-4015-80DC-D848202E7624}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{57A6DDAA-CADA-48CC-A333-1EAF92E3B0F7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1E510434-9DFE-493E-9244-5D47E7C39A90}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{40DA2C98-8B77-4B05-B181-27881412C1CA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{497B8605-0211-4C94-9575-E15740C538CA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B0806879-F770-4ABE-A852-00F325AACFAF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{11F46B24-E03F-41FF-A301-014C248E2A5D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7ABEC3AD-B972-455D-8408-B070AD591413}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9D72D84D-F9F5-4C26-90FA-76B94B17FD3F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7586,7 +7586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BD6A5C-E495-42D0-BF9C-63207734AD2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875E0569-7800-42C3-B05E-DC991ADB001F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8827,17 +8827,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7A183EA7-A605-4084-8E00-5B6125AC5FEC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BDEC2A77-52FA-41FA-9D0A-C282E5C2FD4E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AAFF61D5-0657-4B2A-A691-5E0E620CCBA7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{37B35D58-AC5A-4959-B716-B76FEF45AFBC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C0812384-B038-4D33-B98A-7D4485D752FF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D88A38D3-F64E-47B6-8968-B475525D1AF7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AE399191-B4D3-49FB-B597-4C15919B0B59}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{102F11DE-3B72-4EF9-A005-DC828020322B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DDCEB32E-72F4-4E30-9E60-3A7B47E27740}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0DBB39DE-BB54-41F2-8000-01BF901ED6EB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8BEF04F4-6855-44A5-AC34-1D6996CB28E8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8D1AFF7F-87F5-49E7-A769-9501A42A08FD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AEF1B528-FCC0-418D-9481-DE2A9426D447}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{854279F3-39F2-4F1F-9C99-EF3ED0102D47}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CDD0C0ED-86B5-41E4-824B-17D57A4D1F35}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B04ADC42-2CD4-47DD-A671-B2C09D4E6B88}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D94932FD-5487-4168-96B2-713A76A76190}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{43DD8952-E5EE-4402-A91F-E045EB4164EC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7CE32F3D-A973-4DAB-8E66-611FFD571124}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D5513FEB-7855-4731-AA87-D3207530AE8B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6244E716-8A6B-4C1D-BB27-B5C7A0A88A4E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3277A125-50F3-4D10-9219-2B010E99544C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8850,7 +8850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF5792A-114E-4C13-8EBB-4BB5E2A121F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9ED1C2C-87B8-463E-ABB3-6FDA0A3B0D0D}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10091,17 +10091,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{478FE573-4899-4CEE-8620-B70B977FAD5B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8286B1C9-4966-413B-A8BC-A0F9E90EE022}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9CCE418B-81C4-48D6-B6AC-359372F7525A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9872CDEA-CB88-4DC4-B611-380114D163E4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{17536A74-562A-42CE-ABA1-630B624D5596}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4589FE3A-52A4-4EF7-B5B9-B290D081519B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD09F734-4F0D-452F-8EB6-276DDE8419D9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E6885CA-34EC-4291-8BC5-48A53317946E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{25BFDB7E-1DC0-44BC-A6D9-31BA0C80BFE1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E71E82E1-BF2B-481A-89CD-0F807156657A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{74F22E77-688D-4B09-B6F4-45003D5FF78F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D19B9AA0-54EB-41C0-A2B8-EC045BC1F352}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E6111283-1605-49C2-9BED-6BE44E8D57F9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{946AF17E-A53F-491D-A452-CACDC2B2BF2F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{30A98578-60D6-4BB1-9B72-E0181143E094}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9A88A61A-42B6-457A-83DB-049629547007}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DC94FC2B-91C6-4682-A607-F7C34B181E79}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FB42A1F4-8E6D-40B5-A490-800D5A6B98D3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3067B2C1-2428-4563-A81E-35B6FC258D24}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C67D70B9-059D-4916-92F1-495B4A73DFE4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5F4FA446-25DD-4C0F-9866-A8314E953716}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{11AC4D86-1587-427A-9A05-0C95741C5F69}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10114,7 +10114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27837AE-34CC-4DB9-B472-4C20BF302D9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06258E65-EE0B-4D25-A51D-AB3F7B1AD6B3}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11355,17 +11355,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{44A89E00-C040-4C79-9DB4-67B3B39D2773}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B5E619DA-D79E-4CC5-9F04-FEDC712DDEDB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A405BC2C-84CD-430E-A74E-8F2BD76F2A20}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DBF5E7FF-3412-41E5-844D-7D9B62016066}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1DD68E38-D7F7-4168-8A5F-0FA5CD0624ED}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D277A43A-49B4-4AD3-B47B-1AE07CB6B03A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DF8D92C2-216D-4B2B-AB2E-C0F14A9880F9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6E52FAF0-84A6-4999-AD25-820E3A51EE5D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{AC54DC96-BEED-44AD-B75A-2353A0A152E6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{31CDA4E9-C4C0-4307-B74D-C94F21DDCC61}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3C8AB7F9-DAB7-4DAD-B2BA-AB11DFB9031E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1A1A12EB-E7D3-4DAB-BC2F-B3CB018A4D79}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{94CA202F-290B-470A-B9AF-56A18EC85942}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5F158D58-A61D-4ED5-88A1-1846F0C3E716}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A1A97501-1291-419E-9CBA-58B19DC087B0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B3F5751E-1B82-483C-8865-8C2DA0BF8B82}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E0A907CC-2DDE-495A-ACCD-0DA8ECA6F3FD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{05627408-BD19-4A69-8B1A-78475284B861}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8A9B80AB-FA83-4AE8-BFB0-5B3483DE085F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D815687C-4B27-4B87-B3F2-4A4A38E34FFF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{275BB906-0155-4364-BAAD-611FAB5E6871}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E673768A-32FF-4534-A38D-976326E523E0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11378,7 +11378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B55A944-EB3E-4864-8299-B2284E87A7D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D28E1A5-4439-4F26-B2F6-B449D20D26D1}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12615,17 +12615,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E894A79F-1FF9-4031-AA76-7E0A5F80AF25}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2115D64A-EEC3-4C4A-AF68-0B541EAA7528}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{037B3466-2AA0-4CE4-A25E-5AB35E8C0F35}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3B6974E2-36E6-4CE7-8878-E178CB3325C0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B7363B59-8F77-4F72-9CAD-4648538AB8E9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DF71E26B-9572-4C87-8245-E49942B228BC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5BFD47CB-A105-4C19-9EDC-02E3DF7B4927}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{59F1B2D8-BB71-4567-BC26-F32731BBFCD6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{667F7F3E-B0BE-42BE-BCCB-64AE4CA6887A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{585EE768-43A5-4FFA-BF52-07B3496367FC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DFB8122E-C676-4509-A6E6-FDD89EC377B8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{82C6AF1D-5054-499D-A77E-CB391EBBB931}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{389F986B-1932-479B-80CA-8EB66836F071}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3F60BCD1-FEC0-4A1D-8F96-6D6A305A3C09}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CC3B298B-A07A-4215-8BDD-1DD67ADA68DF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C72DD919-9650-4078-A13E-1AE0DAC41660}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{299A25B6-B231-4C9E-83A2-68F3163932A6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F5BDA5B7-B580-4CD7-983D-F20A3CF12D85}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{22104B6F-4096-4381-92CB-EAE254222279}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0BA66795-EBA6-4E7A-8AD0-87E734E1558C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{06C423E0-FD00-456C-9992-E678AF8F6F9B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0D220DDA-F7AF-4121-9D27-BA62650799A8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12638,7 +12638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1401A09E-1995-4319-8E05-7CC1554848DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBDD53F-D804-483D-9CDB-42E440966265}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13875,17 +13875,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F192FCFC-74D7-4D32-803C-5BB03B9B03EE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3D45D100-5208-446D-A687-A0CC3E81D77D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7D0ED32A-3E76-49A3-97D7-E0CAC6F61114}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D239D983-91C0-4977-BD0B-7DB2BB4115CA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{20F06E98-886E-4399-9289-3BEBCA9CB95D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D6ACE759-86A1-4F64-BDA3-DFA05852ADA7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FD1E195D-4A85-400C-AB8A-31D5D6E56B81}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C5AAE31D-28CB-4FA2-A96E-327121828AA0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{58590F14-B763-4106-A549-19DD7941CCC3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{506D5BA8-2434-4335-9AD1-5C63CA39A2FB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5B16175F-3107-4760-8868-E75596450AE3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D936955E-464C-4DB5-9CE9-22F5691701A9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4A37ED6C-368F-41CE-AC75-2852C63C7328}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{811BBB8E-9B86-4B3E-AD0C-531C65998D64}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{78FE7E5D-9DFD-44C7-B0EB-4DCE80B7B660}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5358E635-114C-4137-A21A-C0548386B6EC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{11D6D23A-3611-4CC1-A581-3564E497BEEC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2D93BE58-7137-495E-A2AA-9F8DB5A94098}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F708D769-46DB-4258-8890-2187DD4D91BF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9B578B31-94C7-4880-A608-C0A658AA5E39}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A6AB1783-B1D0-4658-AAC1-254DA6F7204B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C0D68B4-1E24-4019-8921-84B70238CDA9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13898,7 +13898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09133E7A-72FD-4AD0-A412-E0ECF265516A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E691CDE1-161D-4486-AA4C-AB330F54588D}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15136,17 +15136,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ED90D5B4-C60F-41C7-8C9C-385C605C8F53}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D61BD1AF-8749-4F58-BC1C-8410A718A48B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{63FB2F7D-7044-4B52-A0E5-B5B5A98088E6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D3E597BC-1D45-4BF4-8FC3-4CE1A3B1C131}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{78CECEA4-F74D-4375-A92D-B64A02580271}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DBC6F870-743A-4AFD-AE7D-6F0848CA3F25}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B461A6A6-F645-4E41-BC5E-44711B3733D3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{026F77FA-4B04-4F0B-9360-7ED7B8AF36B9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CAAE7FAD-6560-44AB-98FF-A34AB24DAC40}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2371D933-B4C8-4D47-8247-1ED25A0CDD66}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2F5D3358-1830-4D9E-B5B8-A170089ACBA5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E3E063B4-D07F-4071-A10D-204D27DEB588}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2E65BC0F-C3F9-41D5-AE16-F4FB010DE2D9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9E263800-7D43-4BC0-A7B3-F9E26C09E4C3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4FB10785-6352-4320-AE4F-3540C80642AB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{99EC0A45-D224-4E1B-A885-0C8273A7AD65}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3E111096-AED2-4791-A559-BC4732048055}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8F49A505-0569-452E-A436-99665384E725}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EAF619E9-B07E-413B-87B1-1778D77A3484}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{94D029CC-E230-4D9A-87FC-274B7870FC90}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6362C701-AC56-4AE5-BD74-AE9D1912F50D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D5DCC3F0-12F2-40BD-96B9-6490674B080E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15159,7 +15159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8D9A71-9ED3-495E-9CB7-17818B83F1DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E99EF4B-135A-460A-9238-8AF2A77ED70F}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -16397,17 +16397,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9109EB9B-A45A-4BA4-80F5-77149BE6CE03}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D6D03097-3C86-44C2-8637-F71D8CE1F2FF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{88393831-E554-4A6C-86FD-657F42873530}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{970A097F-4791-4957-8798-D889F581C0E6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F8C8CC72-6F65-454C-B9BF-628F2790A3E2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A6C346FA-585C-481B-A5A6-8EF1229315D3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{93B605E5-B241-4D9A-BB5C-B3EF1FA4645F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{09655C42-E420-40D6-9D4A-5B0C73B2F413}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{56F7DA64-FC03-433C-8736-046458CC27A1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{83136DDE-EE4B-43D7-BB39-3BED76CBBAB5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E227361C-014F-40C0-A6C1-AF380EF1925A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0FDB64DD-C47E-45A2-BA98-EE68050486CE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE11D591-0FF6-4039-AD29-035C42D699CB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{99E5587A-22F5-4A5B-9710-AE4ACC8C9646}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7812D6C5-E0C6-44F1-9658-D4269C8E8174}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C3FA353B-DAA7-4272-9D36-1B74E4221155}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{699898FB-8E9F-4D84-8BD8-28C0F007C16E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7FC9FE19-F869-42D9-84E0-2929370AC199}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D5A9CF0E-C583-46D5-9A74-4AEAE7D2F2D7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{68F7C5CB-66D3-4ACF-A817-168EE7F565CF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EB0851EC-F230-4999-ACD7-5AAD82182279}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{68703409-F6D4-4828-856D-B2A19DB85BBC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
